--- a/Config/LevelConfig.xlsx
+++ b/Config/LevelConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59937DB8-73E7-4C12-A9EC-8CE284BF53F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B9A72-0CCB-4810-8504-85014391B63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="8655" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,12 +52,51 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-Start,
-End,
-SmallBattle,
-EliteBattle,
-Event,
-Empty // Represent empty points in the maze</t>
+/// &lt;summary&gt;
+        /// 小怪
+        /// &lt;/summary&gt;
+        SmallBattle = 0,
+        /// &lt;summary&gt;
+        /// 精英怪
+        /// &lt;/summary&gt;
+        EliteBattle = 1,
+        /// &lt;summary&gt;
+        /// 关底boss
+        /// &lt;/summary&gt;
+        BossBattle = 2,
+        UnKnown = 3,
+        Store = 4,
+        /// &lt;summary&gt;
+        /// 宝箱
+        /// &lt;/summary&gt;
+        Chest = 5,
+        Event = 6,</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{AA5421BC-6A48-4B53-8EFF-66590B5C07FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jump Yellow:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+levelInfo里填的是 EventType</t>
         </r>
       </text>
     </comment>
@@ -66,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -117,14 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>起始点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#普通怪1000开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,7 +164,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#事件点3000开始</t>
+    <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#boss怪3000开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#事件点4000开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,6 +256,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -551,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -565,60 +616,87 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>1001</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>1001</v>
-      </c>
-      <c r="D9">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2001</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>3001</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>2001</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>3001</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>4001</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
     </row>

--- a/Config/LevelConfig.xlsx
+++ b/Config/LevelConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4B9A72-0CCB-4810-8504-85014391B63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3AEB7B-FC63-482D-8BE0-736F1878ED77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-levelInfo里填的是 EventType</t>
+levelInfo里填的是 EventType对应的UI界面assetPathID</t>
         </r>
       </text>
     </comment>
@@ -256,10 +256,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,7 +524,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -608,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -622,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -697,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>1101</v>
       </c>
     </row>
   </sheetData>

--- a/Config/LevelConfig.xlsx
+++ b/Config/LevelConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3AEB7B-FC63-482D-8BE0-736F1878ED77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20490A62-3961-49CB-A2CB-D1C9ECA6B45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4920" yWindow="4350" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">

--- a/Config/LevelConfig.xlsx
+++ b/Config/LevelConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20490A62-3961-49CB-A2CB-D1C9ECA6B45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7665983-E026-4EFD-90F7-EE24589882A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="4350" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="8130" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -677,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">

--- a/Config/LevelConfig.xlsx
+++ b/Config/LevelConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7665983-E026-4EFD-90F7-EE24589882A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2B8F5C-6D7B-4C0E-BFE6-2CDC7D946B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="8130" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4430" yWindow="5090" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>未知点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelAssetID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡对应的放置资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,21 +533,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="25.58203125" customWidth="1"/>
+    <col min="6" max="6" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -556,8 +569,11 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -570,8 +586,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -587,13 +606,16 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -607,7 +629,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -621,7 +643,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3</v>
       </c>
@@ -632,12 +654,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1001</v>
       </c>
@@ -648,12 +670,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2001</v>
       </c>
@@ -664,12 +686,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>3001</v>
       </c>
@@ -680,12 +702,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>4001</v>
       </c>

--- a/Config/LevelConfig.xlsx
+++ b/Config/LevelConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2B8F5C-6D7B-4C0E-BFE6-2CDC7D946B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A61CDD-874A-4B0E-AFDF-3CBCF6EC3DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4430" yWindow="5090" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5910" yWindow="10600" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,6 +74,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{90FE0D5A-8ACD-46EE-9D24-B7E08A2CA19F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jump Yellow:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+AssetID</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A15" authorId="0" shapeId="0" xr:uid="{AA5421BC-6A48-4B53-8EFF-66590B5C07FB}">
       <text>
         <r>
@@ -105,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>#</t>
   </si>
@@ -184,15 +210,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LevelAssetID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关卡对应的放置资源</t>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamInt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleOrLoadAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置战斗棋盘还是asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowUIAssetID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -544,11 +594,11 @@
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="25.58203125" customWidth="1"/>
-    <col min="6" max="6" width="24.75" customWidth="1"/>
+    <col min="5" max="7" width="25.58203125" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -570,10 +620,16 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -587,10 +643,16 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -607,15 +669,21 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -626,10 +694,16 @@
         <v>4</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1102</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -640,10 +714,16 @@
         <v>5</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1102</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>3501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3</v>
       </c>
@@ -654,12 +734,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1001</v>
       </c>
@@ -670,12 +750,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2001</v>
       </c>
@@ -686,12 +766,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>3001</v>
       </c>
@@ -702,12 +782,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>4001</v>
       </c>
@@ -715,7 +795,13 @@
         <v>6</v>
       </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>1101</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Config/LevelConfig.xlsx
+++ b/Config/LevelConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A61CDD-874A-4B0E-AFDF-3CBCF6EC3DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D368EDD-7D9F-44BA-89CF-1204570E89D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5910" yWindow="10600" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{90FE0D5A-8ACD-46EE-9D24-B7E08A2CA19F}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{90FE0D5A-8ACD-46EE-9D24-B7E08A2CA19F}">
       <text>
         <r>
           <rPr>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -243,6 +243,14 @@
   </si>
   <si>
     <t>显示的UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励配置ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -594,11 +602,11 @@
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="7" width="25.58203125" customWidth="1"/>
-    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="5" max="8" width="25.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -626,10 +634,13 @@
         <v>23</v>
       </c>
       <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -649,10 +660,13 @@
         <v>21</v>
       </c>
       <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -675,15 +689,18 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1</v>
       </c>
@@ -699,11 +716,11 @@
       <c r="F6">
         <v>1102</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3501</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2</v>
       </c>
@@ -719,11 +736,11 @@
       <c r="F7">
         <v>1102</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3501</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>3</v>
       </c>
@@ -734,12 +751,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1001</v>
       </c>
@@ -749,13 +766,16 @@
       <c r="E10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2001</v>
       </c>
@@ -765,13 +785,16 @@
       <c r="E12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>3001</v>
       </c>
@@ -781,13 +804,16 @@
       <c r="E14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>4001</v>
       </c>
@@ -801,6 +827,9 @@
         <v>1101</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>1</v>
       </c>
     </row>

--- a/Config/LevelConfig.xlsx
+++ b/Config/LevelConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D368EDD-7D9F-44BA-89CF-1204570E89D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE13154-4E95-4D4A-859E-3DD5634E7CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8070" yWindow="8880" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
